--- a/plantillas/carga_de_datos.xlsx
+++ b/plantillas/carga_de_datos.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
   <si>
     <t>01980</t>
   </si>
@@ -58,6 +58,24 @@
   </si>
   <si>
     <t>InvoiceAmount</t>
+  </si>
+  <si>
+    <t>descripcion_fila_1</t>
+  </si>
+  <si>
+    <t>descripcion_fila_2</t>
+  </si>
+  <si>
+    <t>descripcion_fila_3</t>
+  </si>
+  <si>
+    <t>des_1</t>
+  </si>
+  <si>
+    <t>des_2</t>
+  </si>
+  <si>
+    <t>des_3</t>
   </si>
 </sst>
 </file>
@@ -549,11 +567,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -912,17 +929,17 @@
   <dimension ref="A1:AC8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
@@ -940,27 +957,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="G1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -983,29 +1006,35 @@
       <c r="AC1" s="1"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>144.47999999999999</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>20.170000000000002</v>
       </c>
-      <c r="D2" s="4">
-        <f>PRODUCT(B2*C2)</f>
-        <v>2914.1615999999999</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="D2" s="3">
+        <f>ROUND(PRODUCT(B2*C2),2)</f>
+        <v>2914.16</v>
+      </c>
+      <c r="E2" s="3">
         <v>90600269</v>
       </c>
-      <c r="F2" s="4">
-        <f>SUM(D2:D8)</f>
-        <v>31115.455300000005</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="F2" s="3">
+        <f>SUM(D2:D212)</f>
+        <v>31115.45</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -1028,29 +1057,35 @@
       <c r="AC2" s="1"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>222.64</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>19.170000000000002</v>
       </c>
-      <c r="D3" s="4">
-        <f t="shared" ref="D3:D8" si="0">PRODUCT(B3*C3)</f>
-        <v>4268.0088000000005</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="D3" s="3">
+        <f t="shared" ref="D3:D8" si="0">ROUND(PRODUCT(B3*C3),2)</f>
+        <v>4268.01</v>
+      </c>
+      <c r="E3" s="3">
         <v>90600264</v>
       </c>
-      <c r="F3" s="4">
-        <f>SUM(D2:D8)</f>
-        <v>31115.455300000005</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F8" si="1">SUM(D3:D213)</f>
+        <v>28201.29</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -1073,29 +1108,35 @@
       <c r="AC3" s="1"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>335.12</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>23.12</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <f t="shared" si="0"/>
-        <v>7747.9744000000001</v>
-      </c>
-      <c r="E4" s="4">
+        <v>7747.97</v>
+      </c>
+      <c r="E4" s="3">
         <v>90600268</v>
       </c>
-      <c r="F4" s="4">
-        <f>SUM(D2:D8)</f>
-        <v>31115.455300000005</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="F4" s="3">
+        <f t="shared" si="1"/>
+        <v>23933.280000000002</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -1118,29 +1159,35 @@
       <c r="AC4" s="1"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>277.63</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>27.16</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>7540.4308000000001</v>
-      </c>
-      <c r="E5" s="4">
+        <v>7540.43</v>
+      </c>
+      <c r="E5" s="3">
         <v>90630844</v>
       </c>
-      <c r="F5" s="4">
-        <f>SUM(D2:D8)</f>
-        <v>31115.455300000005</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="F5" s="3">
+        <f t="shared" si="1"/>
+        <v>16185.31</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -1163,29 +1210,35 @@
       <c r="AC5" s="1"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>226.53</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>17.93</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>4061.6828999999998</v>
-      </c>
-      <c r="E6" s="4">
+        <v>4061.68</v>
+      </c>
+      <c r="E6" s="3">
         <v>96748005</v>
       </c>
-      <c r="F6" s="4">
-        <f>SUM(D2:D8)</f>
-        <v>31115.455300000005</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="F6" s="3">
+        <f t="shared" si="1"/>
+        <v>8644.8799999999992</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -1208,29 +1261,35 @@
       <c r="AC6" s="1"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>112.47</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>17.82</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>2004.2154</v>
-      </c>
-      <c r="E7" s="4">
+        <v>2004.22</v>
+      </c>
+      <c r="E7" s="3">
         <v>96748009</v>
       </c>
-      <c r="F7" s="4">
-        <f>SUM(D2:D8)</f>
-        <v>31115.455300000005</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="3"/>
+      <c r="F7" s="3">
+        <f t="shared" si="1"/>
+        <v>4583.2</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -1253,29 +1312,35 @@
       <c r="AC7" s="1"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>110.26</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>23.39</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <f t="shared" si="0"/>
-        <v>2578.9814000000001</v>
-      </c>
-      <c r="E8" s="4">
+        <v>2578.98</v>
+      </c>
+      <c r="E8" s="3">
         <v>97121042</v>
       </c>
-      <c r="F8" s="4">
-        <f>SUM(D2:D8)</f>
-        <v>31115.455300000005</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="F8" s="3">
+        <f t="shared" si="1"/>
+        <v>2578.98</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>

--- a/plantillas/carga_de_datos.xlsx
+++ b/plantillas/carga_de_datos.xlsx
@@ -69,13 +69,13 @@
     <t>descripcion_fila_3</t>
   </si>
   <si>
-    <t>des_1</t>
-  </si>
-  <si>
-    <t>des_2</t>
-  </si>
-  <si>
-    <t>des_3</t>
+    <t>descripcion de prueba 1</t>
+  </si>
+  <si>
+    <t>descripcion de prueba 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">descripcion de prueba 3 </t>
   </si>
 </sst>
 </file>
@@ -928,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,7 +939,8 @@
     <col min="4" max="4" width="16.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
